--- a/src/main/resources/FeatureFiles/CapellaFormTestCase.xlsx
+++ b/src/main/resources/FeatureFiles/CapellaFormTestCase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gurcharan/Desktop/CouchBase/src/main/resources/FeatureFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B446E4E5-0CC2-8F42-986B-A2468CDC40C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B903A725-1A92-DB4A-857C-127A69541B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="53">
   <si>
     <t>Test Case Id</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>{BaseURL}+/downloads/</t>
+  </si>
+  <si>
+    <t>Tags</t>
   </si>
 </sst>
 </file>
@@ -584,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D84"/>
+  <dimension ref="A1:E84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -599,7 +602,7 @@
     <col min="5" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -612,8 +615,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -624,7 +630,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
@@ -632,7 +638,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
@@ -640,7 +646,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
@@ -649,12 +655,12 @@
       </c>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -668,7 +674,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
@@ -679,7 +685,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
@@ -690,7 +696,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
@@ -701,7 +707,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
         <v>13</v>
       </c>
@@ -712,7 +718,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
@@ -723,7 +729,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
         <v>30</v>
       </c>
@@ -731,7 +737,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
         <v>13</v>
       </c>
@@ -742,7 +748,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
@@ -753,7 +759,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
         <v>23</v>
       </c>
